--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/11_Aydın_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/11_Aydın_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11BC4D2D-77ED-407C-8EF8-C49EBD47E785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E97D01D6-8E5B-410F-B74D-FADF9FAF0816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{43C3C2E3-8E79-4A81-AAEE-C16A2F05F2C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{6C4F2EA1-AADB-4A4D-B22C-FC06A9A7BFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="136" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E00853D4-9550-4F72-BAA9-295553F2A9B2}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{03CEA983-7770-43BD-BA18-C42E0C4E8AE4}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{4289FF65-5607-4E5B-8A20-7BB6A2D25D6B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{18C21A95-D302-4C73-91EF-88A02FD98A03}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{3C24E0D6-50F3-4F40-85E9-B02BB117C0E4}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{808390A7-13F7-4222-A2EC-4523EF2C446C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{29CABB84-5F0B-4575-819B-5D385EB68CC2}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{78E2FF3C-544A-46E4-BE2A-C152A18006E5}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F817C132-ABE3-4516-8587-9527C63D0ADF}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{9B63626B-CE57-4CC0-A6E0-344A8494D6D4}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{5E725B1A-082D-4B62-A827-AFBBDAE08758}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{145A9255-8AF7-433E-A56F-4245B9F28190}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{7EEE3F0C-1BFF-4977-BF27-018756E993B3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{496B733E-40B0-44B6-8197-50563F8D2172}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56774BA7-2314-4AFA-A3E2-F978511306AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B16428C-4B05-41BA-AB20-4997CCC2BCEA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2602,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B078E79A-8A70-49B4-8C0B-F034372C6FCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC16FE6-A723-4E44-B0EF-6A6026140B6A}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3910,7 +3910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0E8C77-49B7-4FD8-9CB4-BDC5E08CCA03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69D525C-93CD-4A7C-A337-5A7FA634990E}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5220,7 +5220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26D4A9B-1D1A-48C6-94CE-26B8D814AA28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA07372-51E9-4B69-B6E7-0070BAFADA23}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6526,7 +6526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241E810B-4802-435D-A4B9-71A4DEE9A8BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262691CC-658D-4222-93C1-8661431719ED}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7827,7 +7827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F8254E-9480-4ABA-996F-27849C6DC7E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B135CB-7D81-4AAC-A29E-C67E162A0022}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9129,7 +9129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E02C9A-CBD4-4D18-A1DF-0D023E0812F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D7DB4C-E3DA-429E-AD93-6461C7C1965B}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10431,7 +10431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AB15A9-1795-46F4-81AF-2256683B0AC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFFC027-B5CC-4C1E-AF4E-6AB10B218FDA}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11733,7 +11733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1162B49A-C2B9-48A2-A841-E672C11019D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B752178-8E8A-497F-99DD-31E89EF5D611}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13041,7 +13041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE701C3F-9D86-4C8B-A0E9-E487DC2D5A9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97EEB86-3B3E-4BDA-B76D-BCB024207E68}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14341,7 +14341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D3B152-AB02-420B-8C0A-FFCE6292EF58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D84DD8D-7F46-4366-80C2-7C1CD158B271}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15649,7 +15649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962FF207-F684-4C0A-9F11-F4F10D3C91EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9AC433-FF2B-48EB-B548-876D7FE2B452}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
